--- a/biology/Botanique/Buxanae/Buxanae.xlsx
+++ b/biology/Botanique/Buxanae/Buxanae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buxales est un ordre botanique.
-Pour la classification phylogénétique APG II (2003)[1], Buxaceae est une famille placée directement sous les Dicotylédones vraies (sans être placée sous un ordre).
-La classification phylogénétique APG II (2003)[1] précise la possibilité que dans une future version de la classification, la famille Buxaceae soit élevée au rang d'ordre. Dans ce cas Buxales Takht. ex Reveal (1996) pourrait devenir un ordre contenant de une à deux familles. Ce cas est déjà accepté par Angiosperm Phylogeny Website et NCBI.
-Cet ordre est maintenant reconnu par classification phylogénétique APG III (2009)[2].
+Pour la classification phylogénétique APG II (2003), Buxaceae est une famille placée directement sous les Dicotylédones vraies (sans être placée sous un ordre).
+La classification phylogénétique APG II (2003) précise la possibilité que dans une future version de la classification, la famille Buxaceae soit élevée au rang d'ordre. Dans ce cas Buxales Takht. ex Reveal (1996) pourrait devenir un ordre contenant de une à deux familles. Ce cas est déjà accepté par Angiosperm Phylogeny Website et NCBI.
+Cet ordre est maintenant reconnu par classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon classification phylogénétique APG III (2009)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon classification phylogénétique APG III (2009) :
 Buxales
 Buxaceae Dumort. (1822) (incluant Didymelaceae Leandri)
 Haptanthaceae C.Nelson (2002)</t>
